--- a/biology/Zoologie/Grèbe_aux_belles_joues/Grèbe_aux_belles_joues.xlsx
+++ b/biology/Zoologie/Grèbe_aux_belles_joues/Grèbe_aux_belles_joues.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Gr%C3%A8be_aux_belles_joues</t>
+          <t>Grèbe_aux_belles_joues</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Podiceps occipitalis
 Le Grèbe aux belles joues (Podiceps occipitalis) est une espèce d'oiseaux de la famille des Podicipedidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Gr%C3%A8be_aux_belles_joues</t>
+          <t>Grèbe_aux_belles_joues</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition et sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>P. o. juninensis von Berlepsch &amp; Stolzmann, 1894 : de la Colombie au nord du Chili et de l'Argentine ;
 P. o. occipitalis	Garnot, 1826 : centre/sud du Chili et Argentine, îles Malouines.</t>
